--- a/planeta/historica-negra-poesia-teatro.xlsx
+++ b/planeta/historica-negra-poesia-teatro.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="98">
   <si>
     <t>Title</t>
   </si>
@@ -88,178 +88,232 @@
     <t>discount_Libreria_Santa_Fe</t>
   </si>
   <si>
+    <t>Teatro reunido</t>
+  </si>
+  <si>
+    <t>Abelardo Castillo</t>
+  </si>
+  <si>
+    <t>$18100.00</t>
+  </si>
+  <si>
+    <t>01/11/2023</t>
+  </si>
+  <si>
+    <t>13,5 x 23 cm.</t>
+  </si>
+  <si>
+    <t>9786316508348</t>
+  </si>
+  <si>
+    <t>Rústica con solapas</t>
+  </si>
+  <si>
+    <t>$18.100,00</t>
+  </si>
+  <si>
+    <t>$13.900,00</t>
+  </si>
+  <si>
+    <t>$27.900,00</t>
+  </si>
+  <si>
+    <t>Fantasmas en escena</t>
+  </si>
+  <si>
+    <t>Mariana Eva Perez</t>
+  </si>
+  <si>
+    <t>$22900.00</t>
+  </si>
+  <si>
+    <t>01/03/2022</t>
+  </si>
+  <si>
+    <t>15 x 23 cm.</t>
+  </si>
+  <si>
+    <t>9789501204117</t>
+  </si>
+  <si>
+    <t>$22.900,00</t>
+  </si>
+  <si>
+    <t>El Di Tella</t>
+  </si>
+  <si>
+    <t>Fernando García</t>
+  </si>
+  <si>
+    <t>$29900.00</t>
+  </si>
+  <si>
+    <t>01/05/2021</t>
+  </si>
+  <si>
+    <t>9789501299861</t>
+  </si>
+  <si>
+    <t>$29.900,00</t>
+  </si>
+  <si>
+    <t>$15.950,00</t>
+  </si>
+  <si>
+    <t>Arthur Miller</t>
+  </si>
+  <si>
+    <t>$27900.00</t>
+  </si>
+  <si>
+    <t>01/09/2015</t>
+  </si>
+  <si>
+    <t>12,5 x 19 cm.</t>
+  </si>
+  <si>
+    <t>9789876702997</t>
+  </si>
+  <si>
+    <t>$21.900,00</t>
+  </si>
+  <si>
+    <t>Radiocine</t>
+  </si>
+  <si>
+    <t>Alejandro Dolina</t>
+  </si>
+  <si>
+    <t>$14900.00</t>
+  </si>
+  <si>
+    <t>01/05/2015</t>
+  </si>
+  <si>
+    <t>9789504945673</t>
+  </si>
+  <si>
+    <t>$14.900,00</t>
+  </si>
+  <si>
+    <t>$3.000,00</t>
+  </si>
+  <si>
+    <t>El análisis de los espectaculos</t>
+  </si>
+  <si>
+    <t>Patrice Pavis</t>
+  </si>
+  <si>
+    <t>$379.00</t>
+  </si>
+  <si>
+    <t>25/02/2008</t>
+  </si>
+  <si>
+    <t>13,5 x 22 cm.</t>
+  </si>
+  <si>
+    <t>9788449309786</t>
+  </si>
+  <si>
+    <t>Rústica sin solapas</t>
+  </si>
+  <si>
+    <t>$12.999,00</t>
+  </si>
+  <si>
+    <t>Samuel Beckett</t>
+  </si>
+  <si>
+    <t>$28900.00</t>
+  </si>
+  <si>
+    <t>01/01/1900</t>
+  </si>
+  <si>
+    <t>14 x 21 cm.</t>
+  </si>
+  <si>
+    <t>9789871210435</t>
+  </si>
+  <si>
+    <t>$19.599,00</t>
+  </si>
+  <si>
+    <t>Eleutheria</t>
+  </si>
+  <si>
+    <t>9788472239784</t>
+  </si>
+  <si>
+    <t>$23.000,00</t>
+  </si>
+  <si>
+    <t>$13.999,00</t>
+  </si>
+  <si>
+    <t>El descenso del Monte Morgan</t>
+  </si>
+  <si>
+    <t>9788483104545</t>
+  </si>
+  <si>
+    <t>Todos eran mis hijos</t>
+  </si>
+  <si>
+    <t>9789876700986</t>
+  </si>
+  <si>
+    <t>$34.900,00</t>
+  </si>
+  <si>
+    <t>$23.099,00</t>
+  </si>
+  <si>
     <t>Panorama desde el puente</t>
   </si>
   <si>
-    <t>Arthur Miller</t>
-  </si>
-  <si>
-    <t>$14.900,00</t>
-  </si>
-  <si>
-    <t>01/01/1900</t>
-  </si>
-  <si>
-    <t>Español</t>
+    <t>12,5 x 19,5 cm.</t>
   </si>
   <si>
     <t>9789876700993</t>
   </si>
   <si>
-    <t>12 x 19cm.</t>
-  </si>
-  <si>
-    <t>Rústica sin solapas</t>
-  </si>
-  <si>
-    <t>$23.000,00</t>
+    <t>Muerte de un viajante</t>
+  </si>
+  <si>
+    <t>11/04/2013</t>
+  </si>
+  <si>
+    <t>9789871210343</t>
+  </si>
+  <si>
+    <t>$13.740,00</t>
+  </si>
+  <si>
+    <t>Film</t>
+  </si>
+  <si>
+    <t>9788483107508</t>
+  </si>
+  <si>
+    <t>Esperando a Godot</t>
+  </si>
+  <si>
+    <t>9789509779792</t>
   </si>
   <si>
     <t>Fin de partida</t>
   </si>
   <si>
-    <t>Samuel Beckett</t>
-  </si>
-  <si>
-    <t>01/03/2017</t>
-  </si>
-  <si>
-    <t>9788483104668</t>
-  </si>
-  <si>
-    <t>$13.999,00</t>
-  </si>
-  <si>
-    <t>$21.500,00</t>
-  </si>
-  <si>
-    <t>Muerte de un viajante</t>
-  </si>
-  <si>
-    <t>$13.740,00</t>
-  </si>
-  <si>
-    <t>01/06/2016</t>
-  </si>
-  <si>
-    <t>9789876703703</t>
-  </si>
-  <si>
-    <t>Rústica con solapas</t>
-  </si>
-  <si>
-    <t>Teatro reunido</t>
-  </si>
-  <si>
-    <t>$27.900,00</t>
-  </si>
-  <si>
-    <t>01/09/2015</t>
-  </si>
-  <si>
-    <t>9789876702997</t>
-  </si>
-  <si>
-    <t>$19.599,00</t>
-  </si>
-  <si>
-    <t>$13.900,00</t>
-  </si>
-  <si>
-    <t>Todos eran mis hijos</t>
-  </si>
-  <si>
-    <t>9789876700986</t>
-  </si>
-  <si>
-    <t>14 x 21cm.</t>
-  </si>
-  <si>
-    <t>$23.099,00</t>
-  </si>
-  <si>
-    <t>$34.900,00</t>
-  </si>
-  <si>
-    <t>Radiocine</t>
-  </si>
-  <si>
-    <t>Alejandro Dolina</t>
-  </si>
-  <si>
-    <t>01/05/2015</t>
-  </si>
-  <si>
-    <t>9789504945673</t>
-  </si>
-  <si>
-    <t>15 x 23cm.</t>
-  </si>
-  <si>
-    <t>$5.000,00</t>
-  </si>
-  <si>
-    <t>Abelardo Castillo</t>
-  </si>
-  <si>
-    <t>$18.100,00</t>
-  </si>
-  <si>
-    <t>$17.376</t>
-  </si>
-  <si>
-    <t>4%</t>
-  </si>
-  <si>
-    <t>$27.000,00</t>
-  </si>
-  <si>
-    <t>Fantasmas en escena</t>
-  </si>
-  <si>
-    <t>Mariana Eva Perez</t>
-  </si>
-  <si>
-    <t>$22.900,00</t>
-  </si>
-  <si>
-    <t>01/03/2022</t>
-  </si>
-  <si>
-    <t>Occidental</t>
-  </si>
-  <si>
-    <t>9789501204117</t>
-  </si>
-  <si>
-    <t>15,00   x 23,00  cm.</t>
-  </si>
-  <si>
-    <t>$21.984</t>
-  </si>
-  <si>
-    <t>$8.500,00</t>
-  </si>
-  <si>
-    <t>El Di Tella</t>
-  </si>
-  <si>
-    <t>Fernando García</t>
-  </si>
-  <si>
-    <t>$29.900,00</t>
-  </si>
-  <si>
-    <t>01/05/2021</t>
-  </si>
-  <si>
-    <t>9789501299861</t>
-  </si>
-  <si>
-    <t>$28.704</t>
-  </si>
-  <si>
-    <t>$21.700,00</t>
+    <t>9789871210367</t>
+  </si>
+  <si>
+    <t>Las brujas de Salem &amp; El Crisol</t>
+  </si>
+  <si>
+    <t>9789876700559</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1131,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1170,364 +1224,457 @@
       <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>28</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" t="s">
         <v>29</v>
       </c>
       <c r="O2" t="s">
         <v>30</v>
       </c>
+      <c r="S2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
       <c r="M3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="S3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
         <v>28</v>
       </c>
-      <c r="H4" t="s">
-        <v>41</v>
-      </c>
       <c r="K4" t="s">
-        <v>38</v>
+        <v>44</v>
+      </c>
+      <c r="M4" t="s">
+        <v>44</v>
       </c>
       <c r="O4" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="S4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" t="s">
         <v>28</v>
       </c>
-      <c r="H5" t="s">
-        <v>41</v>
-      </c>
       <c r="K5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="O5" t="s">
-        <v>47</v>
+        <v>51</v>
+      </c>
+      <c r="S5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K6" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="M6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="M7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K8" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="M8" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="O8" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>61</v>
-      </c>
-      <c r="R8" t="s">
-        <v>62</v>
-      </c>
-      <c r="S8" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="K9" t="s">
-        <v>43</v>
+        <v>57</v>
+      </c>
+      <c r="M9" t="s">
+        <v>76</v>
       </c>
       <c r="O9" t="s">
-        <v>63</v>
-      </c>
-      <c r="S9" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" t="s">
         <v>65</v>
       </c>
-      <c r="C10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" t="s">
-        <v>66</v>
-      </c>
-      <c r="K10" t="s">
-        <v>66</v>
-      </c>
       <c r="M10" t="s">
-        <v>66</v>
-      </c>
-      <c r="O10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>71</v>
-      </c>
-      <c r="R10" t="s">
-        <v>62</v>
-      </c>
-      <c r="S10" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" t="s">
+        <v>82</v>
+      </c>
+      <c r="O11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" t="s">
+        <v>89</v>
+      </c>
+      <c r="O13" t="s">
         <v>75</v>
       </c>
-      <c r="D11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" t="s">
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" t="s">
         <v>57</v>
       </c>
-      <c r="H11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="M14" t="s">
+        <v>66</v>
+      </c>
+      <c r="O14" t="s">
         <v>75</v>
       </c>
-      <c r="K11" t="s">
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" t="s">
+        <v>65</v>
+      </c>
+      <c r="M15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" t="s">
+        <v>65</v>
+      </c>
+      <c r="O16" t="s">
         <v>75</v>
       </c>
-      <c r="M11" t="s">
-        <v>75</v>
-      </c>
-      <c r="O11" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>78</v>
-      </c>
-      <c r="R11" t="s">
-        <v>62</v>
-      </c>
-      <c r="S11" t="s">
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O17" t="s">
         <v>75</v>
       </c>
     </row>

--- a/planeta/historica-negra-poesia-teatro.xlsx
+++ b/planeta/historica-negra-poesia-teatro.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="80">
   <si>
     <t>Title</t>
   </si>
@@ -88,34 +88,130 @@
     <t>discount_Libreria_Santa_Fe</t>
   </si>
   <si>
+    <t>Panorama desde el puente</t>
+  </si>
+  <si>
+    <t>Arthur Miller</t>
+  </si>
+  <si>
+    <t>$14.900,00</t>
+  </si>
+  <si>
+    <t>01/01/1900</t>
+  </si>
+  <si>
+    <t>Español</t>
+  </si>
+  <si>
+    <t>9789876700993</t>
+  </si>
+  <si>
+    <t>12 x 19cm.</t>
+  </si>
+  <si>
+    <t>Rústica sin solapas</t>
+  </si>
+  <si>
+    <t>$23.000,00</t>
+  </si>
+  <si>
+    <t>Fin de partida</t>
+  </si>
+  <si>
+    <t>Samuel Beckett</t>
+  </si>
+  <si>
+    <t>01/03/2017</t>
+  </si>
+  <si>
+    <t>9788483104668</t>
+  </si>
+  <si>
+    <t>$13.999,00</t>
+  </si>
+  <si>
+    <t>$21.500,00</t>
+  </si>
+  <si>
+    <t>Muerte de un viajante</t>
+  </si>
+  <si>
+    <t>$13.740,00</t>
+  </si>
+  <si>
+    <t>01/06/2016</t>
+  </si>
+  <si>
+    <t>9789876703703</t>
+  </si>
+  <si>
+    <t>Rústica con solapas</t>
+  </si>
+  <si>
     <t>Teatro reunido</t>
   </si>
   <si>
+    <t>$27.900,00</t>
+  </si>
+  <si>
+    <t>01/09/2015</t>
+  </si>
+  <si>
+    <t>9789876702997</t>
+  </si>
+  <si>
+    <t>$19.599,00</t>
+  </si>
+  <si>
+    <t>$13.900,00</t>
+  </si>
+  <si>
+    <t>Todos eran mis hijos</t>
+  </si>
+  <si>
+    <t>9789876700986</t>
+  </si>
+  <si>
+    <t>14 x 21cm.</t>
+  </si>
+  <si>
+    <t>$23.099,00</t>
+  </si>
+  <si>
+    <t>$34.900,00</t>
+  </si>
+  <si>
+    <t>Radiocine</t>
+  </si>
+  <si>
+    <t>Alejandro Dolina</t>
+  </si>
+  <si>
+    <t>01/05/2015</t>
+  </si>
+  <si>
+    <t>9789504945673</t>
+  </si>
+  <si>
+    <t>15 x 23cm.</t>
+  </si>
+  <si>
+    <t>$5.000,00</t>
+  </si>
+  <si>
     <t>Abelardo Castillo</t>
   </si>
   <si>
-    <t>$18100.00</t>
-  </si>
-  <si>
-    <t>01/11/2023</t>
-  </si>
-  <si>
-    <t>13,5 x 23 cm.</t>
-  </si>
-  <si>
-    <t>9786316508348</t>
-  </si>
-  <si>
-    <t>Rústica con solapas</t>
-  </si>
-  <si>
     <t>$18.100,00</t>
   </si>
   <si>
-    <t>$13.900,00</t>
-  </si>
-  <si>
-    <t>$27.900,00</t>
+    <t>$17.376</t>
+  </si>
+  <si>
+    <t>4%</t>
+  </si>
+  <si>
+    <t>$27.000,00</t>
   </si>
   <si>
     <t>Fantasmas en escena</t>
@@ -124,19 +220,25 @@
     <t>Mariana Eva Perez</t>
   </si>
   <si>
-    <t>$22900.00</t>
+    <t>$22.900,00</t>
   </si>
   <si>
     <t>01/03/2022</t>
   </si>
   <si>
-    <t>15 x 23 cm.</t>
+    <t>Occidental</t>
   </si>
   <si>
     <t>9789501204117</t>
   </si>
   <si>
-    <t>$22.900,00</t>
+    <t>15,00   x 23,00  cm.</t>
+  </si>
+  <si>
+    <t>$21.984</t>
+  </si>
+  <si>
+    <t>$8.500,00</t>
   </si>
   <si>
     <t>El Di Tella</t>
@@ -145,7 +247,7 @@
     <t>Fernando García</t>
   </si>
   <si>
-    <t>$29900.00</t>
+    <t>$29.900,00</t>
   </si>
   <si>
     <t>01/05/2021</t>
@@ -154,166 +256,10 @@
     <t>9789501299861</t>
   </si>
   <si>
-    <t>$29.900,00</t>
-  </si>
-  <si>
-    <t>$15.950,00</t>
-  </si>
-  <si>
-    <t>Arthur Miller</t>
-  </si>
-  <si>
-    <t>$27900.00</t>
-  </si>
-  <si>
-    <t>01/09/2015</t>
-  </si>
-  <si>
-    <t>12,5 x 19 cm.</t>
-  </si>
-  <si>
-    <t>9789876702997</t>
-  </si>
-  <si>
-    <t>$21.900,00</t>
-  </si>
-  <si>
-    <t>Radiocine</t>
-  </si>
-  <si>
-    <t>Alejandro Dolina</t>
-  </si>
-  <si>
-    <t>$14900.00</t>
-  </si>
-  <si>
-    <t>01/05/2015</t>
-  </si>
-  <si>
-    <t>9789504945673</t>
-  </si>
-  <si>
-    <t>$14.900,00</t>
-  </si>
-  <si>
-    <t>$3.000,00</t>
-  </si>
-  <si>
-    <t>El análisis de los espectaculos</t>
-  </si>
-  <si>
-    <t>Patrice Pavis</t>
-  </si>
-  <si>
-    <t>$379.00</t>
-  </si>
-  <si>
-    <t>25/02/2008</t>
-  </si>
-  <si>
-    <t>13,5 x 22 cm.</t>
-  </si>
-  <si>
-    <t>9788449309786</t>
-  </si>
-  <si>
-    <t>Rústica sin solapas</t>
-  </si>
-  <si>
-    <t>$12.999,00</t>
-  </si>
-  <si>
-    <t>Samuel Beckett</t>
-  </si>
-  <si>
-    <t>$28900.00</t>
-  </si>
-  <si>
-    <t>01/01/1900</t>
-  </si>
-  <si>
-    <t>14 x 21 cm.</t>
-  </si>
-  <si>
-    <t>9789871210435</t>
-  </si>
-  <si>
-    <t>$19.599,00</t>
-  </si>
-  <si>
-    <t>Eleutheria</t>
-  </si>
-  <si>
-    <t>9788472239784</t>
-  </si>
-  <si>
-    <t>$23.000,00</t>
-  </si>
-  <si>
-    <t>$13.999,00</t>
-  </si>
-  <si>
-    <t>El descenso del Monte Morgan</t>
-  </si>
-  <si>
-    <t>9788483104545</t>
-  </si>
-  <si>
-    <t>Todos eran mis hijos</t>
-  </si>
-  <si>
-    <t>9789876700986</t>
-  </si>
-  <si>
-    <t>$34.900,00</t>
-  </si>
-  <si>
-    <t>$23.099,00</t>
-  </si>
-  <si>
-    <t>Panorama desde el puente</t>
-  </si>
-  <si>
-    <t>12,5 x 19,5 cm.</t>
-  </si>
-  <si>
-    <t>9789876700993</t>
-  </si>
-  <si>
-    <t>Muerte de un viajante</t>
-  </si>
-  <si>
-    <t>11/04/2013</t>
-  </si>
-  <si>
-    <t>9789871210343</t>
-  </si>
-  <si>
-    <t>$13.740,00</t>
-  </si>
-  <si>
-    <t>Film</t>
-  </si>
-  <si>
-    <t>9788483107508</t>
-  </si>
-  <si>
-    <t>Esperando a Godot</t>
-  </si>
-  <si>
-    <t>9789509779792</t>
-  </si>
-  <si>
-    <t>Fin de partida</t>
-  </si>
-  <si>
-    <t>9789871210367</t>
-  </si>
-  <si>
-    <t>Las brujas de Salem &amp; El Crisol</t>
-  </si>
-  <si>
-    <t>9789876700559</t>
+    <t>$28.704</t>
+  </si>
+  <si>
+    <t>$21.700,00</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1077,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1224,457 +1170,364 @@
       <c r="F2" t="s">
         <v>27</v>
       </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
       <c r="H2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" t="s">
         <v>29</v>
       </c>
       <c r="O2" t="s">
         <v>30</v>
       </c>
-      <c r="S2" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
         <v>34</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" t="s">
         <v>35</v>
       </c>
-      <c r="E3" t="s">
+      <c r="O3" t="s">
         <v>36</v>
-      </c>
-      <c r="F3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" t="s">
-        <v>38</v>
-      </c>
-      <c r="S3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
         <v>40</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
         <v>41</v>
       </c>
-      <c r="D4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" t="s">
         <v>36</v>
-      </c>
-      <c r="F4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" t="s">
         <v>46</v>
       </c>
-      <c r="C5" t="s">
+      <c r="O5" t="s">
         <v>47</v>
-      </c>
-      <c r="D5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" t="s">
-        <v>51</v>
-      </c>
-      <c r="S5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" t="s">
         <v>52</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" t="s">
-        <v>57</v>
-      </c>
-      <c r="M6" t="s">
-        <v>57</v>
-      </c>
-      <c r="O6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
+        <v>57</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>41</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
       </c>
       <c r="M7" t="s">
-        <v>66</v>
+        <v>24</v>
+      </c>
+      <c r="O7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>45</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>41</v>
+      </c>
+      <c r="I8" t="s">
+        <v>60</v>
       </c>
       <c r="K8" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="M8" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="O8" t="s">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>61</v>
+      </c>
+      <c r="R8" t="s">
+        <v>62</v>
+      </c>
+      <c r="S8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>45</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
       </c>
       <c r="H9" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="K9" t="s">
-        <v>57</v>
-      </c>
-      <c r="M9" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="O9" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="S9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" t="s">
         <v>69</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>70</v>
       </c>
-      <c r="F10" t="s">
-        <v>78</v>
-      </c>
       <c r="H10" t="s">
-        <v>65</v>
+        <v>41</v>
+      </c>
+      <c r="I10" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" t="s">
+        <v>66</v>
       </c>
       <c r="M10" t="s">
-        <v>76</v>
+        <v>66</v>
+      </c>
+      <c r="O10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>71</v>
+      </c>
+      <c r="R10" t="s">
+        <v>62</v>
+      </c>
+      <c r="S10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" t="s">
+        <v>75</v>
+      </c>
+      <c r="O11" t="s">
         <v>79</v>
       </c>
-      <c r="B11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" t="s">
-        <v>80</v>
-      </c>
-      <c r="H11" t="s">
-        <v>65</v>
-      </c>
-      <c r="K11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M11" t="s">
-        <v>82</v>
-      </c>
-      <c r="O11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="A12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" t="s">
-        <v>85</v>
-      </c>
-      <c r="H12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="A13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" t="s">
-        <v>88</v>
-      </c>
-      <c r="H13" t="s">
-        <v>65</v>
-      </c>
-      <c r="K13" t="s">
-        <v>89</v>
-      </c>
-      <c r="O13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="A14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K14" t="s">
-        <v>57</v>
-      </c>
-      <c r="M14" t="s">
-        <v>66</v>
-      </c>
-      <c r="O14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
-      <c r="A15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" t="s">
-        <v>93</v>
-      </c>
-      <c r="H15" t="s">
-        <v>65</v>
-      </c>
-      <c r="M15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="A16" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" t="s">
-        <v>84</v>
-      </c>
-      <c r="F16" t="s">
-        <v>95</v>
-      </c>
-      <c r="H16" t="s">
-        <v>65</v>
-      </c>
-      <c r="O16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" t="s">
-        <v>97</v>
-      </c>
-      <c r="H17" t="s">
-        <v>65</v>
-      </c>
-      <c r="O17" t="s">
+      <c r="Q11" t="s">
+        <v>78</v>
+      </c>
+      <c r="R11" t="s">
+        <v>62</v>
+      </c>
+      <c r="S11" t="s">
         <v>75</v>
       </c>
     </row>
